--- a/biology/Médecine/Théophane_Chrysobalantès/Théophane_Chrysobalantès.xlsx
+++ b/biology/Médecine/Théophane_Chrysobalantès/Théophane_Chrysobalantès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophane_Chrysobalant%C3%A8s</t>
+          <t>Théophane_Chrysobalantès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théophane Chrysobalantès (en grec Θεοφάνης Χρυσοβαλάντης) est un médecin byzantin, ayant probablement vécu au Xe siècle, auteur notamment d'une compilation de médecine générale appelée Synopsis ou Épitomè.
-L'ouvrage, qui a connu une grande diffusion (plus de 50 manuscrits conservés échelonnés entre le XIVe  et le XVIe siècle), est adressé à un « empereur Constantin Porphyrogénète » (Πρὸς Κωνσταντῖνον τὸν πορφυρογέννητον βασιλέα σύνοψις ἰατρικῆς ἁπάσης τέχνης) qui doit être Constantin VII (regn. 913-959), empereur qui fit établir de nombreuses anthologies et compilations dans tous les domaines. La forme est celle des Collections médicales d'Oribase, et les 297 chapitres sont constitués surtout d'éléments empruntés à ce dernier auteur, à Aétios d'Amida, à Alexandre de Tralles et à Paul d'Égine. Les éditions parues entre le XVIe  et le XVIIIe siècle étaient placées sous le nom erroné de « Theophanes Nonnos », venant d'une note marginale figurant dans un manuscrit d'André Darmarios[1] qui a servi à les établir. Le véritable nom, « Theophanes Chrysobalantes », a été trouvé sur un autre manuscrit, le Vind. med. gr. 50.
+L'ouvrage, qui a connu une grande diffusion (plus de 50 manuscrits conservés échelonnés entre le XIVe  et le XVIe siècle), est adressé à un « empereur Constantin Porphyrogénète » (Πρὸς Κωνσταντῖνον τὸν πορφυρογέννητον βασιλέα σύνοψις ἰατρικῆς ἁπάσης τέχνης) qui doit être Constantin VII (regn. 913-959), empereur qui fit établir de nombreuses anthologies et compilations dans tous les domaines. La forme est celle des Collections médicales d'Oribase, et les 297 chapitres sont constitués surtout d'éléments empruntés à ce dernier auteur, à Aétios d'Amida, à Alexandre de Tralles et à Paul d'Égine. Les éditions parues entre le XVIe  et le XVIIIe siècle étaient placées sous le nom erroné de « Theophanes Nonnos », venant d'une note marginale figurant dans un manuscrit d'André Darmarios qui a servi à les établir. Le véritable nom, « Theophanes Chrysobalantes », a été trouvé sur un autre manuscrit, le Vind. med. gr. 50.
 Deux autres traités médicaux sont du même auteur : l'un Sur les médicaments (Περὶ φαρμάκων), l'autre Sur les aliments (Περὶ τροφῶν).
 </t>
         </is>
